--- a/TestData/TMTI0056883_VerifyNewJobTypeIsForFVAOnly.xlsx
+++ b/TestData/TMTI0056883_VerifyNewJobTypeIsForFVAOnly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EB1BE6-6C98-4CA1-A449-74CF3BA897F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2033BAC6-A54E-46E6-8FFE-D981EAB013D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23136" windowHeight="11556" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>JobType</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>FR</t>
+  </si>
+  <si>
+    <t>CVAS - IP Valuation</t>
   </si>
 </sst>
 </file>
@@ -790,13 +793,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -804,7 +807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -819,29 +822,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AE0FA7-2F57-4BA1-965A-06DF4981B62E}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -852,30 +865,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TMTI0056883_VerifyNewJobTypeIsForFVAOnly.xlsx
+++ b/TestData/TMTI0056883_VerifyNewJobTypeIsForFVAOnly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2033BAC6-A54E-46E6-8FFE-D981EAB013D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1C1642-7398-45AF-A81E-A58B91373FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23136" windowHeight="11556" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="1530" yWindow="780" windowWidth="21600" windowHeight="10740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>JobType</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>CVAS - IP Valuation</t>
+  </si>
+  <si>
+    <t>TAS - ESG Due Diligence &amp; Analytics</t>
   </si>
 </sst>
 </file>
@@ -822,10 +825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AE0FA7-2F57-4BA1-965A-06DF4981B62E}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,6 +861,16 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -865,15 +878,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -899,6 +912,16 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TMTI0056883_VerifyNewJobTypeIsForFVAOnly.xlsx
+++ b/TestData/TMTI0056883_VerifyNewJobTypeIsForFVAOnly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1C1642-7398-45AF-A81E-A58B91373FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71E0AB3-1622-4C91-ABCC-FBE6323EA90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="1530" yWindow="780" windowWidth="21600" windowHeight="10740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,7 +881,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
